--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409944.935487464</v>
+        <v>3408057.353971061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>192.7528939571058</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.46389722690833</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>161.1486436253827</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>95.1744377039069</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.91569010595153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.733841663479</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.97910349388753</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>78.49471243660118</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>283.3580910135616</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>225.6865628169635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.1277204557075</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>6.730923023926285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>101.4950386131011</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>217.671677290324</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>31.19341459165062</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.2898147863542</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801243</v>
+        <v>25.34051740973096</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943745</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897938</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523605</v>
+        <v>54.76109577523554</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550465</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298325</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.8242008463384</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.2873553346313</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.8165910026955</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>613.8540740622839</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5883754555334</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5883754555334</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>248.6428747063299</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4404,40 +4404,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4744,22 +4744,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.9506728057379</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>995.9506728057379</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>637.6849741989874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>637.6849741989874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>630.739473449784</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>452.0983189327502</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6692635248394</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6692635248394</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>399.5526241125036</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>399.5526241125036</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>399.5526241125036</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>986.002216560966</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550791</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550791</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550791</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3177283550791</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,19 +5364,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404651</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247862</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383447</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W16" t="n">
-        <v>447.0408779707047</v>
+        <v>668.5943183619625</v>
       </c>
       <c r="X16" t="n">
-        <v>447.0408779707047</v>
+        <v>668.5943183619625</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.0408779707047</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.8631874464245</v>
+        <v>195.3259000014045</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185176</v>
+        <v>195.3259000014045</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185176</v>
+        <v>195.3259000014045</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185176</v>
+        <v>195.3259000014045</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471196</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655743</v>
+        <v>644.1080300429519</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655743</v>
+        <v>644.1080300429519</v>
       </c>
       <c r="X19" t="n">
-        <v>948.3042314201941</v>
+        <v>416.1184791449346</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.5116522766641</v>
+        <v>195.3259000014045</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028593</v>
+        <v>199.7373324836203</v>
       </c>
       <c r="C22" t="n">
-        <v>97.217091460286</v>
+        <v>199.7373324836203</v>
       </c>
       <c r="D22" t="n">
-        <v>97.217091460286</v>
+        <v>199.7373324836203</v>
       </c>
       <c r="E22" t="n">
-        <v>97.217091460286</v>
+        <v>199.7373324836203</v>
       </c>
       <c r="F22" t="n">
-        <v>97.217091460286</v>
+        <v>199.7373324836203</v>
       </c>
       <c r="G22" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.10087974468</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387936</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018331</v>
+        <v>609.3753482118774</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038158</v>
+        <v>381.3857973138601</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>381.3857973138601</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365139</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028596</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028604</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028604</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>97.2170914602861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.2170914602861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.2170914602861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.2170914602861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.2170914602861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011504</v>
+        <v>944.1853708078967</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>944.1853708078967</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6230,7 +6230,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6306,19 +6306,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>447.0175521403269</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="C28" t="n">
-        <v>415.509052552801</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="X28" t="n">
-        <v>447.0175521403269</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0175521403269</v>
+        <v>199.5300356889265</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,22 +6546,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>487.5700015473436</v>
+        <v>439.5324299542215</v>
       </c>
       <c r="C31" t="n">
-        <v>487.5700015473436</v>
+        <v>326.3571123076855</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473436</v>
+        <v>326.3571123076855</v>
       </c>
       <c r="E31" t="n">
-        <v>395.417773246321</v>
+        <v>300.7606300756337</v>
       </c>
       <c r="F31" t="n">
-        <v>304.288691029781</v>
+        <v>209.6315478590943</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933495</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667499</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962041</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056072</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899268</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167067</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661996</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981889</v>
+        <v>902.6804289818956</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652421</v>
+        <v>730.4517433652493</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.4576010962129</v>
+        <v>565.4200295030902</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7184,16 +7184,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014291</v>
@@ -7202,22 +7202,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028583</v>
@@ -7333,10 +7333,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,40 +7421,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504511</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7713,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>381.3739760657747</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10194,25 +10194,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.90051268448542</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.3877236703344</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583797</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.5144649694901</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.0528486217881</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.879261385015695</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>60.83643551962754</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722372</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>218.9787323651108</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>64.99852985027654</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518759</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338446</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>68.56567510825333</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>136.0534065069772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>45.14414786021503</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700711</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965561</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.89018860828097</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571524</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.55719587719965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739408.7851869179</v>
+        <v>739408.785186918</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541053</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541051</v>
-      </c>
       <c r="G2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541051</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869587</v>
+        <v>691597.6334869596</v>
       </c>
       <c r="L2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="M2" t="n">
+        <v>697885.5043846404</v>
+      </c>
+      <c r="N2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="N2" t="n">
-        <v>697885.5043846406</v>
-      </c>
       <c r="O2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284539</v>
+        <v>44162.60530284583</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086713</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028459</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007567</v>
+        <v>7916.731656007509</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007507</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007503</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020391</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732804</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092338</v>
+        <v>-122858.501609234</v>
       </c>
       <c r="C6" t="n">
         <v>467109.3776053108</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053102</v>
+        <v>467109.3776053109</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248526</v>
+        <v>39587.84834651258</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234091</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493809</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493811</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.124756788</v>
+        <v>388324.6656308158</v>
       </c>
       <c r="K6" t="n">
-        <v>524725.4654836867</v>
+        <v>524706.9717457525</v>
       </c>
       <c r="L6" t="n">
-        <v>559491.9728664201</v>
+        <v>559491.9728664205</v>
       </c>
       <c r="M6" t="n">
-        <v>435033.8644334507</v>
+        <v>435033.86443345</v>
       </c>
       <c r="N6" t="n">
+        <v>569834.8796672877</v>
+      </c>
+      <c r="O6" t="n">
         <v>569834.8796672875</v>
       </c>
-      <c r="O6" t="n">
-        <v>569834.8796672872</v>
-      </c>
       <c r="P6" t="n">
-        <v>525672.2743644419</v>
+        <v>525672.2743644415</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.857132569087894e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.857132569087894e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855728</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108392</v>
+        <v>12.92863350108339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639336</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>221.0312760636892</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7829238717195</v>
+        <v>27.35284188332949</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>125.133230616595</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>318.6097323168881</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.6689632461433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,16 +28096,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>316.5557073809159</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35969,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>663.7376783068829</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,10 +36048,10 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36203,22 +36203,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556561</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556561</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>343.0950860824984</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412226</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584673</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403575</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043149</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>630.5822970683473</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
